--- a/Rezultati/Rezultati.xlsx
+++ b/Rezultati/Rezultati.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t xml:space="preserve">BS h1 (bs=100)</t>
   </si>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">maxD</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;3h</t>
+    <t xml:space="preserve">BF Gamma=0.4</t>
   </si>
 </sst>
 </file>
@@ -467,10 +467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G107" activeCellId="0" sqref="G107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R106" activeCellId="0" sqref="R106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5310,19 +5310,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,19 +5333,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,19 +5356,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>64</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5379,7 +5379,19 @@
         <v>16</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5390,7 +5402,19 @@
         <v>16</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5401,7 +5425,19 @@
         <v>16</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,7 +5448,19 @@
         <v>32</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,7 +5471,19 @@
         <v>32</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5434,8 +5494,127 @@
         <v>32</v>
       </c>
       <c r="C123" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C127" s="0" t="n">
         <v>28</v>
       </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Rezultati/Rezultati.xlsx
+++ b/Rezultati/Rezultati.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t xml:space="preserve">BS h1 (bs=100)</t>
   </si>
@@ -89,25 +89,10 @@
     <t xml:space="preserve">Gamma=0.2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Gamma=0.2</t>
-    </r>
+    <t xml:space="preserve">Gamma=0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF Gamma=0.2</t>
   </si>
   <si>
     <t xml:space="preserve">Bf</t>
@@ -121,6 +106,9 @@
   <si>
     <t xml:space="preserve">BF Gamma=0.4</t>
   </si>
+  <si>
+    <t xml:space="preserve">SEED = 312312231</t>
+  </si>
 </sst>
 </file>
 
@@ -129,13 +117,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,12 +138,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,10 +196,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,13 +222,16 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="8" style="0" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -273,7 +253,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -317,7 +297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -328,7 +308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
@@ -339,7 +319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
@@ -350,7 +330,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
@@ -361,7 +341,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
@@ -372,12 +352,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
         <v>80</v>
       </c>
@@ -385,7 +365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
         <v>80</v>
       </c>
@@ -393,7 +373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
         <v>80</v>
       </c>
@@ -401,7 +381,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
         <v>80</v>
       </c>
@@ -409,37 +389,37 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>16</v>
       </c>
@@ -467,17 +447,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P134"/>
+  <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R106" activeCellId="0" sqref="R106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S143" activeCellId="0" sqref="S143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="8" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>18</v>
       </c>
@@ -607,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
@@ -654,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
@@ -701,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
@@ -724,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>1</v>
@@ -748,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
@@ -889,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>2</v>
       </c>
@@ -936,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2</v>
       </c>
@@ -983,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>2</v>
       </c>
@@ -1030,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>2</v>
       </c>
@@ -1077,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>2</v>
       </c>
@@ -1124,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>2</v>
       </c>
@@ -1547,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>4</v>
       </c>
@@ -1688,7 +1671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>4</v>
       </c>
@@ -1876,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>4</v>
       </c>
@@ -2064,7 +2047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>20</v>
       </c>
@@ -2111,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>16</v>
       </c>
@@ -2158,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>16</v>
       </c>
@@ -2205,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>16</v>
       </c>
@@ -2868,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>2</v>
       </c>
@@ -3009,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>2</v>
       </c>
@@ -3056,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>2</v>
       </c>
@@ -3103,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>2</v>
       </c>
@@ -3620,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>4</v>
       </c>
@@ -5077,544 +5060,5027 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="N103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="P103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="P104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>428</v>
+      </c>
+      <c r="L105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="N105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <v>427</v>
+      </c>
+      <c r="P105" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>1747</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>1710</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>1743</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" s="0" t="n">
+        <v>1714</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <v>1696</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="N108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="P108" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>467</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>448</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>452</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>446</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="0" t="n">
+        <v>455</v>
+      </c>
+      <c r="N109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>1790</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>1804</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" s="0" t="n">
+        <v>1807</v>
+      </c>
+      <c r="N110" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" s="0" t="n">
+        <v>1782</v>
+      </c>
+      <c r="P110" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="N111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="N112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>474</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>463</v>
+      </c>
+      <c r="L113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" s="0" t="n">
+        <v>475</v>
+      </c>
+      <c r="N113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="0" t="n">
+        <v>468</v>
+      </c>
+      <c r="P113" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>1834</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>1823</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>1815</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" s="0" t="n">
+        <v>1848</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <v>1830</v>
+      </c>
+      <c r="P114" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="P115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="N116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="P116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>478</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>472</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>1884</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>1893</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>1875</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <v>1887</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <v>1883</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B120" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="N120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B121" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>605</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>607</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>604</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>588</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B122" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>2502</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>2499</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>2533</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>2475</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M122" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N122" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <v>2549</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B124" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P124" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B125" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>673</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>688</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>671</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" s="0" t="n">
+        <v>684</v>
+      </c>
+      <c r="N125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" s="0" t="n">
+        <v>663</v>
+      </c>
+      <c r="P125" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>2782</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>2704</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>2760</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>2709</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M126" s="0" t="n">
+        <v>2768</v>
+      </c>
+      <c r="N126" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O126" s="0" t="n">
+        <v>2693</v>
+      </c>
+      <c r="P126" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P127" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>737</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>706</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>718</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="0" t="n">
+        <v>719</v>
+      </c>
+      <c r="N129" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O129" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>2910</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>2900</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>2960</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>2832</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M130" s="0" t="n">
+        <v>2883</v>
+      </c>
+      <c r="N130" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O130" s="0" t="n">
+        <v>2820</v>
+      </c>
+      <c r="P130" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P132" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B133" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>791</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>643</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>596</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="N133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="P133" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B134" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>2840</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>2863</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>2683</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M134" s="0" t="n">
+        <v>2558</v>
+      </c>
+      <c r="N134" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O134" s="0" t="n">
+        <v>2702</v>
+      </c>
+      <c r="P134" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P136" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="N137" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="P137" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>3827</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>5269</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>3729</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>4896</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M138" s="0" t="n">
+        <v>3835</v>
+      </c>
+      <c r="N138" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="O138" s="0" t="n">
+        <v>4919</v>
+      </c>
+      <c r="P138" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="N141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="P141" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>2206</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M142" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N142" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O142" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P142" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P143" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="N145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="P145" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M146" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N146" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O146" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P146" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P148" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C149" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="N149" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="P149" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M150" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N150" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="O150" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P150" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H173" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B179" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B180" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G181" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="H181" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E200" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F200" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H202" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H203" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G204" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G105" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H105" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="H204" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="G210" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H210" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>3965</v>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H212" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B229" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="H229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="J229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="N229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="P229" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B230" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="J230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="L230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="N230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="P230" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="F231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="H231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="J231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" s="0" t="n">
+        <v>428</v>
+      </c>
+      <c r="L231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="N231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" s="0" t="n">
+        <v>427</v>
+      </c>
+      <c r="P231" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>1747</v>
+      </c>
+      <c r="F232" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G232" s="0" t="n">
+        <v>1710</v>
+      </c>
+      <c r="H232" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" s="0" t="n">
+        <v>1743</v>
+      </c>
+      <c r="J232" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L232" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M232" s="0" t="n">
+        <v>1714</v>
+      </c>
+      <c r="N232" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O232" s="0" t="n">
+        <v>1696</v>
+      </c>
+      <c r="P232" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C233" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="H233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="J233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="L233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="P233" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="J234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="L234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="N234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="P234" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>467</v>
+      </c>
+      <c r="F235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" s="0" t="n">
+        <v>448</v>
+      </c>
+      <c r="H235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" s="0" t="n">
+        <v>452</v>
+      </c>
+      <c r="J235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" s="0" t="n">
+        <v>446</v>
+      </c>
+      <c r="L235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" s="0" t="n">
+        <v>455</v>
+      </c>
+      <c r="N235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="P235" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>1790</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>1804</v>
+      </c>
+      <c r="J236" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K236" s="0" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L236" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" s="0" t="n">
+        <v>1807</v>
+      </c>
+      <c r="N236" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O236" s="0" t="n">
+        <v>1782</v>
+      </c>
+      <c r="P236" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B237" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="J237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="N237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P237" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B238" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="H238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="J238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="L238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="N238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P238" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="F239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="H239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" s="0" t="n">
+        <v>474</v>
+      </c>
+      <c r="J239" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" s="0" t="n">
+        <v>463</v>
+      </c>
+      <c r="L239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" s="0" t="n">
+        <v>475</v>
+      </c>
+      <c r="N239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" s="0" t="n">
+        <v>468</v>
+      </c>
+      <c r="P239" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>1834</v>
+      </c>
+      <c r="F240" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" s="0" t="n">
+        <v>1823</v>
+      </c>
+      <c r="H240" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="J240" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K240" s="0" t="n">
+        <v>1815</v>
+      </c>
+      <c r="L240" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M240" s="0" t="n">
+        <v>1848</v>
+      </c>
+      <c r="N240" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O240" s="0" t="n">
+        <v>1830</v>
+      </c>
+      <c r="P240" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="H241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="J241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="L241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="N241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="P241" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="H242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="J242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="L242" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="N242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="P242" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>478</v>
+      </c>
+      <c r="F243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" s="0" t="n">
+        <v>472</v>
+      </c>
+      <c r="H243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="J243" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="L243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="N243" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O243" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="P243" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F244" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G244" s="0" t="n">
+        <v>1884</v>
+      </c>
+      <c r="H244" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I244" s="0" t="n">
+        <v>1893</v>
+      </c>
+      <c r="J244" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K244" s="0" t="n">
+        <v>1875</v>
+      </c>
+      <c r="L244" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M244" s="0" t="n">
+        <v>1887</v>
+      </c>
+      <c r="N244" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O244" s="0" t="n">
+        <v>1883</v>
+      </c>
+      <c r="P244" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P245" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B246" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="F246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="H246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="J246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="L246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="N246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="P246" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B247" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" s="0" t="n">
+        <v>605</v>
+      </c>
+      <c r="H247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" s="0" t="n">
+        <v>607</v>
+      </c>
+      <c r="J247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" s="0" t="n">
+        <v>604</v>
+      </c>
+      <c r="L247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="N247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" s="0" t="n">
+        <v>588</v>
+      </c>
+      <c r="P247" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B248" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>2502</v>
+      </c>
+      <c r="F248" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" s="0" t="n">
+        <v>2499</v>
+      </c>
+      <c r="H248" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" s="0" t="n">
+        <v>2533</v>
+      </c>
+      <c r="J248" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K248" s="0" t="n">
+        <v>2475</v>
+      </c>
+      <c r="L248" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M248" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N248" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O248" s="0" t="n">
+        <v>2549</v>
+      </c>
+      <c r="P248" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B249" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P249" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B250" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="H250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P250" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B251" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>673</v>
+      </c>
+      <c r="H251" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" s="0" t="n">
+        <v>688</v>
+      </c>
+      <c r="J251" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" s="0" t="n">
+        <v>671</v>
+      </c>
+      <c r="L251" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" s="0" t="n">
+        <v>684</v>
+      </c>
+      <c r="N251" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O251" s="0" t="n">
+        <v>663</v>
+      </c>
+      <c r="P251" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B252" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>2782</v>
+      </c>
+      <c r="F252" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G252" s="0" t="n">
+        <v>2704</v>
+      </c>
+      <c r="H252" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I252" s="0" t="n">
+        <v>2760</v>
+      </c>
+      <c r="J252" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K252" s="0" t="n">
+        <v>2709</v>
+      </c>
+      <c r="L252" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M252" s="0" t="n">
+        <v>2768</v>
+      </c>
+      <c r="N252" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O252" s="0" t="n">
+        <v>2693</v>
+      </c>
+      <c r="P252" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F253" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H253" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J253" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L253" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N253" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P253" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B254" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N254" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P254" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B255" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>737</v>
+      </c>
+      <c r="F255" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" s="0" t="n">
+        <v>706</v>
+      </c>
+      <c r="H255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" s="0" t="n">
+        <v>718</v>
+      </c>
+      <c r="J255" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="L255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" s="0" t="n">
+        <v>719</v>
+      </c>
+      <c r="N255" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O255" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="P255" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B256" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>2910</v>
+      </c>
+      <c r="F256" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G256" s="0" t="n">
+        <v>2900</v>
+      </c>
+      <c r="H256" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I256" s="0" t="n">
+        <v>2960</v>
+      </c>
+      <c r="J256" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K256" s="0" t="n">
+        <v>2832</v>
+      </c>
+      <c r="L256" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M256" s="0" t="n">
+        <v>2883</v>
+      </c>
+      <c r="N256" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O256" s="0" t="n">
+        <v>2820</v>
+      </c>
+      <c r="P256" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B258" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B259" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B260" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F273" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="H273" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="J273" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="L273" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="F274" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H274" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="J274" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="L274" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="n">
+        <v>638</v>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>620</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>629</v>
+      </c>
+      <c r="F275" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" s="0" t="n">
+        <v>591</v>
+      </c>
+      <c r="H275" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" s="0" t="n">
+        <v>613</v>
+      </c>
+      <c r="J275" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="L275" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="n">
+        <v>2518</v>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>2483</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>2479</v>
+      </c>
+      <c r="F276" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G276" s="0" t="n">
+        <v>2540</v>
+      </c>
+      <c r="H276" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I276" s="0" t="n">
+        <v>2442</v>
+      </c>
+      <c r="J276" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K276" s="0" t="n">
+        <v>2461</v>
+      </c>
+      <c r="L276" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F277" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H277" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J277" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L277" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B278" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="F278" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G278" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="H278" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="J278" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="L278" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="n">
+        <v>658</v>
+      </c>
+      <c r="B279" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>621</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>655</v>
+      </c>
+      <c r="F279" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" s="0" t="n">
+        <v>622</v>
+      </c>
+      <c r="H279" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" s="0" t="n">
+        <v>622</v>
+      </c>
+      <c r="J279" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K279" s="0" t="n">
+        <v>614</v>
+      </c>
+      <c r="L279" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="n">
+        <v>2771</v>
+      </c>
+      <c r="B280" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>2713</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>2694</v>
+      </c>
+      <c r="F280" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>2708</v>
+      </c>
+      <c r="H280" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I280" s="0" t="n">
+        <v>2735</v>
+      </c>
+      <c r="J280" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C106" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E106" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="H106" s="0" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B107" s="0" t="n">
+      <c r="K280" s="0" t="n">
+        <v>2716</v>
+      </c>
+      <c r="L280" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C107" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="E107" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="F107" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G107" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B108" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="E108" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F108" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="G108" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="H108" s="0" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B109" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E109" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B110" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E110" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="F110" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G110" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B111" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="C111" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="E111" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F111" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="G111" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H111" s="0" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B112" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E112" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F112" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="H112" s="0" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B113" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E113" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="F113" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G113" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H113" s="0" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B114" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="C114" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="E114" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="G114" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H114" s="0" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C115" s="0" t="n">
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L281" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="F282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L282" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="F283" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="H283" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="J283" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="L283" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="n">
+        <v>2954</v>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>2847</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>2784</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G284" s="0" t="n">
+        <v>2760</v>
+      </c>
+      <c r="H284" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I284" s="0" t="n">
+        <v>2774</v>
+      </c>
+      <c r="J284" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E115" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F115" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G115" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B116" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C116" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E116" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F116" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G116" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B117" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C117" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E117" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="G117" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B118" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C118" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E118" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F118" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G118" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B119" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C119" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E119" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F119" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G119" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H119" s="0" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B120" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F120" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="G120" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B121" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="C121" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E121" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F121" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G121" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H121" s="0" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B122" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="C122" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E122" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F122" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G122" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H122" s="0" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B123" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="C123" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E123" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F123" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="G123" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B125" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C125" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B126" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B127" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B128" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C128" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B129" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C129" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B130" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C130" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B131" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="C131" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B132" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="C132" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B133" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="C133" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4"/>
+      <c r="K284" s="0" t="n">
+        <v>2687</v>
+      </c>
+      <c r="L284" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Rezultati/Rezultati.xlsx
+++ b/Rezultati/Rezultati.xlsx
@@ -449,8 +449,8 @@
   </sheetPr>
   <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S143" activeCellId="0" sqref="S143"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N126" activeCellId="0" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Rezultati/Rezultati.xlsx
+++ b/Rezultati/Rezultati.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
   <si>
     <t xml:space="preserve">BS h1 (bs=100)</t>
   </si>
@@ -92,6 +92,24 @@
     <t xml:space="preserve">Gamma=0.4</t>
   </si>
   <si>
+    <t xml:space="preserve">BS h1 (bs=4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS h2 (bs=4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS h1 (bs=8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS h2 (bs=8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS h1 (bs=16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS h2 (bs=16)</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF Gamma=0.2</t>
   </si>
   <si>
@@ -123,6 +141,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -222,7 +241,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
@@ -447,13 +466,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P284"/>
+  <dimension ref="A1:T340"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N126" activeCellId="0" sqref="N126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T321" activeCellId="0" sqref="T321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.71"/>
@@ -7352,9 +7371,69 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
+      <c r="I161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R161" s="1"/>
+      <c r="S161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
+      <c r="I162" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J162" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L162" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M162" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N162" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O162" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P162" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q162" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R162" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S162" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="T162" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
@@ -7382,22 +7461,82 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
+      <c r="I172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R172" s="1"/>
+      <c r="S172" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F173" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="I173" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K173" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M173" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O173" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q173" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S173" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="T173" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7422,6 +7561,42 @@
       <c r="H174" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="I174" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S174" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T174" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
@@ -7445,6 +7620,42 @@
       <c r="H175" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="I175" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="J175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="L175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="N175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="P175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S175" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="T175" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="n">
@@ -7468,6 +7679,42 @@
       <c r="H176" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="I176" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="L176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="N176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="P176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="R176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S176" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="T176" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="n">
@@ -7491,6 +7738,42 @@
       <c r="H177" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="I177" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S177" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T177" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
@@ -7514,6 +7797,42 @@
       <c r="H178" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="I178" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="N178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="P178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S178" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="T178" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="n">
@@ -7537,6 +7856,42 @@
       <c r="H179" s="0" t="n">
         <v>52</v>
       </c>
+      <c r="I179" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="L179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="N179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="P179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="R179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="T179" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="n">
@@ -7560,6 +7915,42 @@
       <c r="H180" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="I180" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S180" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T180" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="n">
@@ -7583,6 +7974,42 @@
       <c r="H181" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="I181" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="N181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="P181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="T181" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="n">
@@ -7605,6 +8032,42 @@
       </c>
       <c r="H182" s="0" t="n">
         <v>52</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="L182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="N182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="P182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="R182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S182" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="T182" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,6 +8092,42 @@
       <c r="H183" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="I183" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S183" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T183" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="n">
@@ -7652,6 +8151,42 @@
       <c r="H184" s="0" t="n">
         <v>52</v>
       </c>
+      <c r="I184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="R184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T184" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="n">
@@ -7675,6 +8210,42 @@
       <c r="H185" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="I185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T185" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="n">
@@ -7698,6 +8269,42 @@
       <c r="H186" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="I186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T186" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="n">
@@ -7721,6 +8328,42 @@
       <c r="H187" s="0" t="n">
         <v>52</v>
       </c>
+      <c r="I187" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="R187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T187" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="n">
@@ -7744,6 +8387,42 @@
       <c r="H188" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="I188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T188" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="n">
@@ -7767,6 +8446,42 @@
       <c r="H189" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="I189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T189" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="n">
@@ -7790,6 +8505,42 @@
       <c r="H190" s="0" t="n">
         <v>52</v>
       </c>
+      <c r="I190" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="R190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S190" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T190" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="n">
@@ -7813,10 +8564,46 @@
       <c r="H191" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="I191" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S191" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T191" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7841,6 +8628,42 @@
       <c r="H193" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="I193" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="N193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S193" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="T193" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
@@ -7864,6 +8687,42 @@
       <c r="H194" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="I194" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="J194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="L194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="N194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="P194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="R194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="T194" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="n">
@@ -7887,6 +8746,42 @@
       <c r="H195" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="I195" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="R195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T195" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="n">
@@ -7910,6 +8805,42 @@
       <c r="H196" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="I196" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="J196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="P196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="R196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S196" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="T196" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="n">
@@ -7933,6 +8864,42 @@
       <c r="H197" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="I197" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="J197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="L197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="N197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="P197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S197" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="T197" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="n">
@@ -7956,6 +8923,42 @@
       <c r="H198" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="I198" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="L198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="N198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="P198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="R198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S198" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="T198" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="n">
@@ -7979,6 +8982,42 @@
       <c r="H199" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="I199" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="L199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="N199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="P199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="R199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S199" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="T199" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="n">
@@ -8002,6 +9041,42 @@
       <c r="H200" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="I200" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="J200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="L200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="N200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="R200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S200" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T200" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="n">
@@ -8024,6 +9099,42 @@
       </c>
       <c r="H201" s="0" t="n">
         <v>46</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="J201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="P201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="T201" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8048,6 +9159,42 @@
       <c r="H202" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="I202" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S202" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T202" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
@@ -8071,6 +9218,42 @@
       <c r="H203" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="I203" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="R203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S203" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T203" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="n">
@@ -8094,6 +9277,42 @@
       <c r="H204" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="I204" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S204" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T204" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="n">
@@ -8117,6 +9336,42 @@
       <c r="H205" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="I205" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S205" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T205" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="n">
@@ -8140,6 +9395,42 @@
       <c r="H206" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="I206" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="R206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S206" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T206" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="n">
@@ -8163,6 +9454,42 @@
       <c r="H207" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="I207" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S207" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T207" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="n">
@@ -8186,6 +9513,42 @@
       <c r="H208" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="I208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="R208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T208" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="n">
@@ -8209,6 +9572,42 @@
       <c r="H209" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="I209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="R209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T209" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="n">
@@ -8231,6 +9630,42 @@
       </c>
       <c r="H210" s="0" t="n">
         <v>44</v>
+      </c>
+      <c r="I210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T210" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9623,7 +11058,7 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10082,8 +11517,1808 @@
         <v>10</v>
       </c>
     </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="2"/>
+      <c r="M291" s="2"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="3"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="3"/>
+      <c r="B299" s="3"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="3"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="3"/>
+      <c r="D302" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M302" s="1"/>
+      <c r="N302" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O302" s="2"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G303" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H303" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I303" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J303" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K303" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L303" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M303" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N303" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O303" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B304" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C304" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D304" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E304" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F304" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G304" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H304" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I304" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K304" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M304" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O304" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C305" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D305" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F305" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H305" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="O305" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B306" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D306" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E306" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G306" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H306" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I306" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K306" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="M306" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="O306" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D307" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F307" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H307" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O307" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B308" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D308" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H308" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="O308" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B309" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D309" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H309" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="M309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="O309" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B310" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D310" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O310" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B311" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D311" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H311" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="O311" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B312" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C312" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D312" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E312" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F312" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G312" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I312" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K312" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="M312" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="O312" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B313" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C313" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D313" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E313" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G313" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H313" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I313" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K313" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M313" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O313" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B314" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C314" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D314" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E314" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F314" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G314" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H314" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I314" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K314" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M314" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O314" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B315" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C315" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D315" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H315" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O315" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B316" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C316" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D316" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F316" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H316" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O316" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B317" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C317" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D317" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E317" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F317" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G317" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I317" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K317" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M317" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O317" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B318" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C318" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D318" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F318" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O318" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B319" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C319" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D319" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F319" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H319" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O319" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B320" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C320" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D320" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H320" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O320" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B321" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C321" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D321" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E321" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F321" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G321" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H321" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I321" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K321" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L321" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M321" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O321" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B323" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C323" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D323" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F323" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="O323" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B324" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C324" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D324" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E324" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F324" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G324" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H324" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="I324" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="K324" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M324" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O324" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B325" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C325" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D325" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E325" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F325" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G325" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H325" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I325" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K325" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M325" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O325" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B326" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C326" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D326" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F326" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H326" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="O326" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B327" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C327" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D327" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F327" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="I327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="K327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O327" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B328" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C328" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D328" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E328" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F328" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G328" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H328" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I328" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K328" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="M328" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="O328" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B329" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C329" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D329" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F329" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H329" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="I329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="K329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O329" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B330" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C330" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D330" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F330" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H330" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="M330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O330" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C331" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D331" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E331" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F331" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G331" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I331" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="K331" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="M331" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="O331" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B332" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C332" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D332" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E332" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F332" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G332" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H332" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I332" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K332" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M332" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O332" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B333" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C333" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D333" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E333" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F333" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G333" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H333" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I333" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K333" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M333" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O333" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B334" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C334" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D334" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E334" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F334" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G334" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H334" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I334" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K334" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M334" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O334" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B335" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C335" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D335" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E335" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F335" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G335" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H335" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I335" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K335" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M335" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O335" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B336" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C336" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D336" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F336" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H336" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O336" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B337" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C337" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D337" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F337" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H337" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O337" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B338" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C338" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D338" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F338" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H338" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O338" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B339" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C339" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D339" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E339" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F339" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G339" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H339" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I339" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K339" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M339" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O339" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B340" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C340" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D340" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F340" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H340" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O340" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="30">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -10091,6 +13326,29 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="O161:P161"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="S161:T161"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="Q172:R172"/>
+    <mergeCell ref="S172:T172"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="H302:I302"/>
+    <mergeCell ref="J302:K302"/>
+    <mergeCell ref="L302:M302"/>
+    <mergeCell ref="N302:O302"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Rezultati/Rezultati.xlsx
+++ b/Rezultati/Rezultati.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
   <si>
     <t xml:space="preserve">BS h1 (bs=100)</t>
   </si>
@@ -127,6 +127,33 @@
   <si>
     <t xml:space="preserve">SEED = 312312231</t>
   </si>
+  <si>
+    <t xml:space="preserve">IP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ko je bolji bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;gg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;=gg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tvs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP04</t>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,6 +184,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,6 +248,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,7 +278,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
@@ -466,13 +503,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T340"/>
+  <dimension ref="A1:T369"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T321" activeCellId="0" sqref="T321"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O350" activeCellId="0" sqref="O350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.71"/>
@@ -13315,6 +13352,276 @@
       </c>
       <c r="O340" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E351" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K351" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C352" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G352" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K352" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L352" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M352" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C353" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D353" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F353" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G353" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H353" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="K353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F354" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F355" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E358" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K358" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G359" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K359" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L359" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M359" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C360" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D360" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F360" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G360" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H360" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="K360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L360" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M360" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C361" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D361" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F361" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="G361" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H361" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B362" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F362" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="H362" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E365" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K365" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C366" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G366" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K366" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L366" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M366" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C367" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D367" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F367" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G367" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H367" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="K367" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M367" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B368" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C368" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D368" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F368" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G368" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H368" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K368" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L368" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M368" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B369" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C369" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D369" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F369" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G369" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H369" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
